--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>De</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PathR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,6 +553,26 @@
   </si>
   <si>
     <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1020,32 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1036,7 +1074,7 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,10 +1085,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,87 +1684,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1001</v>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1737,52 +1774,123 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4464B-6725-42CE-B638-954903C2757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -78,12 +79,77 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>이태섭</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{9B43CD8E-6404-4D6B-9A54-99E0F7EE38D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이태섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> id
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,10 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PathR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,23 +626,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrunchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Player/Paladin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +700,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -925,27 +1023,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1023,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1057,16 +1155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1074,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1085,13 +1183,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1104,16 +1202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1155,7 +1253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1169,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1183,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1197,7 +1295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1211,7 +1309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1232,16 +1330,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1263,7 +1361,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1283,19 +1381,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1323,7 +1421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1331,7 +1429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1339,7 +1437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -1347,7 +1445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -1355,7 +1453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1370,16 +1468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1426,7 +1524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1481,7 +1579,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1489,7 +1587,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>3</v>
       </c>
@@ -1501,16 +1599,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1542,7 +1640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1672,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1613,16 +1711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1630,7 +1728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1668,7 +1766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1683,21 +1781,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1723,7 +1822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1749,12 +1848,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>87</v>
@@ -1763,33 +1862,40 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>1001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1803,19 +1909,25 @@
         <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,15 +1947,21 @@
         <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1861,15 +1979,21 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="1">
         <v>150</v>
@@ -1884,12 +2008,18 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.8</v>
       </c>
     </row>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4464B-6725-42CE-B638-954903C2757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2DBA1-63F1-4E7D-B221-107887FF636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="DeFine_Reward" sheetId="7" r:id="rId7"/>
     <sheet name="Player" sheetId="8" r:id="rId8"/>
     <sheet name="Stat" sheetId="9" r:id="rId9"/>
-    <sheet name="AI" sheetId="10" r:id="rId10"/>
+    <sheet name="Attack" sheetId="11" r:id="rId10"/>
+    <sheet name="AI" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +664,78 @@
   </si>
   <si>
     <t>Assets/Prefabs/Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 연속기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (우횡베기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 2 (대각선 올려치기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 3 (점프해서 내려 치기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Animatons/Paladin/sword and shield slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Animatons/Paladin/sword and shield slash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource/Animatons/Paladin/sword and shield slash2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,6 +1228,156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1802E2F4-60B3-4516-8BEF-889EE63693A7}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>100001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>100002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>100003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>100003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1880,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2026,5 +2249,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeeTaeSeop\Coding\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA2DBA1-63F1-4E7D-B221-107887FF636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B20801-954A-42D0-AF0A-A401E1D6FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Stat" sheetId="9" r:id="rId9"/>
     <sheet name="Attack" sheetId="11" r:id="rId10"/>
     <sheet name="AI" sheetId="10" r:id="rId11"/>
+    <sheet name="Boss" sheetId="12" r:id="rId12"/>
+    <sheet name="Item" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -209,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,15 +729,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource/Animatons/Paladin/sword and shield slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource/Animatons/Paladin/sword and shield slash3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource/Animatons/Paladin/sword and shield slash2</t>
+    <t>StageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (내려찍기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword and shield slash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,20 +1157,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1194,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1229,21 +1283,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1802E2F4-60B3-4516-8BEF-889EE63693A7}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1349,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -1318,10 +1372,10 @@
         <v>100002</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -1344,10 +1398,10 @@
         <v>100003</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1367,7 +1421,46 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>100001</v>
+      </c>
+      <c r="G14" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>200001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1382,12 +1475,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1421,6 +1514,116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E548CB-1EAD-4388-ACD4-BEAC350B9163}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479E22C3-3D18-41F4-BABD-B62DD2A37094}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1432,9 +1635,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1462,7 +1665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1476,7 +1679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1490,7 +1693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1504,7 +1707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1518,7 +1721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1532,7 +1735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1560,9 +1763,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1584,7 +1787,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1611,12 +1814,12 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1644,7 +1847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1652,7 +1855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1660,7 +1863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -1668,7 +1871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -1676,7 +1879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1698,9 +1901,9 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1747,7 +1950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1802,7 +2005,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1810,7 +2013,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>3</v>
       </c>
@@ -1829,9 +2032,9 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +2066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +2098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1941,9 +2144,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1951,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +2192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2011,7 +2214,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
@@ -2019,7 +2222,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2045,7 +2248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2101,24 +2304,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2182,7 +2385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -2193,10 +2396,10 @@
         <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -2214,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -2225,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -2244,6 +2447,54 @@
       </c>
       <c r="J4" s="1">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeeTaeSeop\Coding\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B20801-954A-42D0-AF0A-A401E1D6FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>이태섭</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{9B43CD8E-6404-4D6B-9A54-99E0F7EE38D4}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,12 +146,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,14 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StageType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,13 +781,21 @@
   </si>
   <si>
     <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1150,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1282,11 +1281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1802E2F4-60B3-4516-8BEF-889EE63693A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1320,7 +1319,7 @@
         <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1346,7 +1345,7 @@
         <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1372,7 +1371,7 @@
         <v>100002</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1398,7 +1397,7 @@
         <v>100003</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,8 +1419,11 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1429,7 +1431,7 @@
         <v>200001</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1444,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1452,7 +1454,7 @@
         <v>100001</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1460,7 +1462,7 @@
         <v>200001</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1518,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E548CB-1EAD-4388-ACD4-BEAC350B9163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1541,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>114</v>
@@ -1553,10 +1555,10 @@
         <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,22 +1566,22 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1590,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>2000</v>
@@ -1609,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479E22C3-3D18-41F4-BABD-B62DD2A37094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1618,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1756,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1807,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1894,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2025,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2207,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2303,7 +2305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,7 +2488,7 @@
         <v>1001</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2494,7 +2496,7 @@
         <v>2001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeeTaeSeop\Coding\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39596B2E-FF52-4F70-84F1-09456F7A7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,12 +82,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>이태섭</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -146,12 +147,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,13 +790,21 @@
   </si>
   <si>
     <t>애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킥 (모든 캐릭터가 가지는 공용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1281,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1374,7 @@
         <v>0.3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>100002</v>
@@ -1391,7 +1400,7 @@
         <v>0.3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>100003</v>
@@ -1417,7 +1426,7 @@
         <v>0.2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1443,10 +1452,36 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>300001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1473,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1520,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1611,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1630,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1758,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1809,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1896,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2027,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2139,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,11 +2244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2305,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeeTaeSeop\Coding\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39596B2E-FF52-4F70-84F1-09456F7A7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9380297-312F-47A9-868F-74310C65FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -1165,20 +1165,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1293,19 +1293,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -1365,16 +1365,16 @@
         <v>122</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>100002</v>
@@ -1383,7 +1383,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -1391,16 +1391,16 @@
         <v>123</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>100003</v>
@@ -1409,7 +1409,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -1417,16 +1417,16 @@
         <v>124</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>200001</v>
       </c>
@@ -1443,22 +1443,25 @@
         <v>138</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1.4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>300001</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1484,7 +1487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F14">
         <v>100001</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F15">
         <v>200001</v>
       </c>
@@ -1515,9 +1518,9 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1562,18 +1565,18 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1651,9 +1654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -1672,9 +1675,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1800,9 +1803,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1851,12 +1854,12 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1938,9 +1941,9 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>3</v>
       </c>
@@ -2069,9 +2072,9 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2181,9 +2184,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2247,11 +2250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
@@ -2259,7 +2262,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2347,18 +2350,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G11" s="1">
         <v>1001</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="G12" s="1">
         <v>2001</v>
       </c>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9380297-312F-47A9-868F-74310C65FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92A215-BF48-4621-9BA0-32CD2B288140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <sheet name="Defin_Item" sheetId="6" r:id="rId6"/>
     <sheet name="DeFine_Reward" sheetId="7" r:id="rId7"/>
     <sheet name="Player" sheetId="8" r:id="rId8"/>
-    <sheet name="Stat" sheetId="9" r:id="rId9"/>
-    <sheet name="Attack" sheetId="11" r:id="rId10"/>
-    <sheet name="AI" sheetId="10" r:id="rId11"/>
-    <sheet name="Boss" sheetId="12" r:id="rId12"/>
+    <sheet name="Boss" sheetId="12" r:id="rId9"/>
+    <sheet name="Stat" sheetId="9" r:id="rId10"/>
+    <sheet name="Attack" sheetId="11" r:id="rId11"/>
+    <sheet name="AI" sheetId="10" r:id="rId12"/>
     <sheet name="Item" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Prefabs/Player/Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,6 +790,18 @@
   </si>
   <si>
     <t>Kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Player/Paladin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,10 +1294,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1310,25 +1516,25 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1336,25 +1542,25 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1362,7 +1568,7 @@
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1380,7 +1586,7 @@
         <v>100002</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1388,7 +1594,7 @@
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1406,7 +1612,7 @@
         <v>100003</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1414,7 +1620,7 @@
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1432,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1440,7 +1646,7 @@
         <v>200001</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1458,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1466,7 +1672,7 @@
         <v>300001</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1484,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1492,7 +1698,7 @@
         <v>100001</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1500,7 +1706,7 @@
         <v>200001</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1528,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1539,10 +1745,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1554,97 +1760,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1658,7 +1773,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2366,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2282,10 +2397,10 @@
         <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2305,13 +2420,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -2319,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2331,7 +2446,7 @@
         <v>1001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2343,198 +2458,101 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="1">
-        <v>150</v>
-      </c>
-      <c r="C4" s="1">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G11" s="1">
-        <v>1001</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G12" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>129</v>
+      <c r="H3" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92A215-BF48-4621-9BA0-32CD2B288140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE3EB6-063A-4972-8039-3DC15AB54CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,14 @@
   </si>
   <si>
     <t>Prefabs/Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (궁수의 활 쏘기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,11 +1508,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
@@ -1691,6 +1700,29 @@
       </c>
       <c r="H7" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>110001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>1.2</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -2462,7 +2494,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2540,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE3EB6-063A-4972-8039-3DC15AB54CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B5DAA-9F7E-48E8-90E0-3F05F39ADF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,18 +605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PathR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스노드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Def</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,6 +798,54 @@
   </si>
   <si>
     <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startWaitTime</t>
+  </si>
+  <si>
+    <t>timeToRotate</t>
+  </si>
+  <si>
+    <t>viewRadius</t>
+  </si>
+  <si>
+    <t>viewAngle</t>
+  </si>
+  <si>
+    <t>meshResolution</t>
+  </si>
+  <si>
+    <t>edgeIterations</t>
+  </si>
+  <si>
+    <t>edgeDistance</t>
+  </si>
+  <si>
+    <t>시작 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약 밖을 탐지하는 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 시야각</t>
+  </si>
+  <si>
+    <t>적의 시야 반경(반지름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ray 투사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광선 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ray 반복 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1334,22 +1370,22 @@
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -1372,16 +1408,16 @@
         <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1485,7 +1521,7 @@
         <v>1001</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1493,7 +1529,7 @@
         <v>2001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1544,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1525,25 +1561,25 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1551,25 +1587,25 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1577,7 +1613,7 @@
         <v>100001</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1595,7 +1631,7 @@
         <v>100002</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1603,7 +1639,7 @@
         <v>100002</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1621,7 +1657,7 @@
         <v>100003</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1629,7 +1665,7 @@
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1647,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1655,7 +1691,7 @@
         <v>200001</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1673,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1681,7 +1717,7 @@
         <v>300001</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1699,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1707,7 +1743,7 @@
         <v>110001</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>0.8</v>
@@ -1722,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1730,7 +1766,7 @@
         <v>100001</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1738,7 +1774,7 @@
         <v>200001</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1750,15 +1786,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1766,10 +1810,28 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1777,21 +1839,61 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10001</v>
+      </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1805,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2466,10 +2568,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2478,7 +2580,7 @@
         <v>1001</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2493,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2514,10 +2616,10 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -2526,10 +2628,10 @@
         <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>81</v>
@@ -2543,19 +2645,19 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>89</v>
@@ -2566,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2584,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltns\OneDrive\바탕 화면\Unity\PortPolio\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B5DAA-9F7E-48E8-90E0-3F05F39ADF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="769" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="769" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -37,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>이태섭</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,12 +146,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>Camera_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,71 +600,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔라딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrunchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉기 이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 연속기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (우횡베기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 2 (대각선 올려치기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 3 (점프해서 내려 치기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (내려찍기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킥 (모든 캐릭터가 가지는 공용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 1 (궁수의 활 쏘기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startWaitTime</t>
+  </si>
+  <si>
+    <t>timeToRotate</t>
+  </si>
+  <si>
+    <t>viewRadius</t>
+  </si>
+  <si>
+    <t>viewAngle</t>
+  </si>
+  <si>
+    <t>시작 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시약 밖을 탐지하는 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 시야각</t>
+  </si>
+  <si>
+    <t>적의 시야 반경(반지름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔라딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrunchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉기 이동 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷는 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 연속기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
+    <t>AI의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster/Boss/Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Paladin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크의 후려치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,186 +863,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후딜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 1 (우횡베기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 2 (대각선 올려치기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 3 (점프해서 내려 치기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 1 (내려찍기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword and shield slash1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword and shield slash2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword and shield slash3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킥 (모든 캐릭터가 가지는 공용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/Orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Player/Paladin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 1 (궁수의 활 쏘기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startWaitTime</t>
-  </si>
-  <si>
-    <t>timeToRotate</t>
-  </si>
-  <si>
-    <t>viewRadius</t>
-  </si>
-  <si>
-    <t>viewAngle</t>
-  </si>
-  <si>
-    <t>meshResolution</t>
-  </si>
-  <si>
-    <t>edgeIterations</t>
-  </si>
-  <si>
-    <t>edgeDistance</t>
-  </si>
-  <si>
-    <t>시작 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시약 밖을 탐지하는 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 시야각</t>
-  </si>
-  <si>
-    <t>적의 시야 반경(반지름)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ray 투사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광선 길이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ray 반복 횟수</t>
+    <t>Player/Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크의 올려치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1206,27 +1240,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1304,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1338,25 +1372,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1370,25 +1404,25 @@
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,21 +1442,21 @@
         <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1440,10 +1474,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -1452,9 +1486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>150</v>
@@ -1472,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -1484,9 +1518,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2001</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>5000</v>
@@ -1504,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -1516,20 +1550,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G12" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1540,80 +1574,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
       <c r="H1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>100001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1625,21 +1660,21 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>100002</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1651,21 +1686,21 @@
         <v>0.2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100003</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1677,21 +1712,21 @@
         <v>0.3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>200001</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1703,78 +1738,156 @@
         <v>0.4</v>
       </c>
       <c r="F6">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>1.2</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>300001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>110001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8">
-        <v>0.8</v>
-      </c>
-      <c r="D8">
-        <v>1.2</v>
-      </c>
-      <c r="E8">
-        <v>0.3</v>
-      </c>
-      <c r="F8">
+      <c r="H9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15">
+        <v>51</v>
+      </c>
+      <c r="N15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F14">
-        <v>100001</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F15">
-        <v>200001</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1785,24 +1898,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1810,28 +1921,19 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1839,30 +1941,21 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1878,15 +1971,6 @@
       </c>
       <c r="F3">
         <v>90</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1898,16 +1982,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1917,16 +2001,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1940,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1968,7 +2052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1982,7 +2066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1996,7 +2080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2010,7 +2094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2024,7 +2108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2045,16 +2129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2065,7 +2149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2076,7 +2160,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2096,19 +2180,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +2220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2144,7 +2228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -2152,7 +2236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1800</v>
       </c>
@@ -2160,7 +2244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1100</v>
       </c>
@@ -2168,7 +2252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -2183,16 +2267,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2239,7 +2323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2277,7 +2361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2294,7 +2378,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2302,7 +2386,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>3</v>
       </c>
@@ -2314,16 +2398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2355,7 +2439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2471,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2426,16 +2510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2496,14 +2580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
@@ -2511,7 +2595,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2533,11 +2617,8 @@
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2559,28 +2640,45 @@
       <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2592,34 +2690,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
         <v>80</v>
@@ -2628,16 +2726,19 @@
         <v>83</v>
       </c>
       <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2645,36 +2746,39 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
       </c>
       <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
         <v>131</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2001</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2686,7 +2790,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Document/MonsterHunter-Second-.xlsx
+++ b/Document/MonsterHunter-Second-.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MonsterHunter-Second-\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\MonsterHunter-Second-\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="769" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="769" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Camera" sheetId="1" r:id="rId1"/>
+    <sheet name="camera" sheetId="1" r:id="rId1"/>
     <sheet name="Sound" sheetId="2" r:id="rId2"/>
     <sheet name="Loading" sheetId="4" r:id="rId3"/>
     <sheet name="Lan" sheetId="3" r:id="rId4"/>
@@ -1241,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1323,19 +1323,19 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1346,22 +1346,48 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
+      <c r="H5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1497,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1577,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
